--- a/student.xlsx
+++ b/student.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wei\PycharmProjects\chatbot_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986372C7-FCDA-4940-851F-26FC48CD4819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528003E2-F3ED-4344-ADDE-23C4C626E187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{8CC53610-0A62-4185-A066-98BEBE0C82F5}"/>
   </bookViews>
   <sheets>
-    <sheet name="丁班" sheetId="2" r:id="rId1"/>
-    <sheet name="戊班" sheetId="1" r:id="rId2"/>
+    <sheet name="401" sheetId="3" r:id="rId1"/>
+    <sheet name="402" sheetId="4" r:id="rId2"/>
+    <sheet name="403" sheetId="5" r:id="rId3"/>
+    <sheet name="404" sheetId="6" r:id="rId4"/>
+    <sheet name="丁班" sheetId="2" r:id="rId5"/>
+    <sheet name="戊班" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>小花</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丁小花</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>座號</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,7 +56,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丁天天</t>
+    <t>俊豪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘋果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鳳梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何包旦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑糖糕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐胡爐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>凱全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐘民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈞翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和塏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕勳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮緯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綮渝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育澤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晏叡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昊緯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昀翰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丞佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沂柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宸菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姍霓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珮昀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱甯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彥喆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉揚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皓丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翔旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政睎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景皓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宥良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霖懋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇硯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彥傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家崴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昊澤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑀心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憫恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苡彤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴斐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邑潔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子霈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沛渝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏蓉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳宣妤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,11 +423,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,11 +746,593 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7543267-0196-45FB-8167-27FB08032793}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>997</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1360153D-7395-4565-8EA6-F088BC24B4AE}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>997</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B274AF2E-7E0C-4FBA-8325-50FE6E54A365}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>997</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D0282C-2AD2-4B1C-B01C-80F16BCB0706}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>998</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>997</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFBECDC-D5D2-48A8-81EE-786597A9F090}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -437,10 +1342,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -456,7 +1361,7 @@
         <v>998</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -474,7 +1379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2E4B68-54CC-4624-95F9-3B7617A62475}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -489,10 +1394,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -508,7 +1413,7 @@
         <v>998</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -516,7 +1421,7 @@
         <v>997</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/student.xlsx
+++ b/student.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wei\PycharmProjects\chatbot_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528003E2-F3ED-4344-ADDE-23C4C626E187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42055FA-C595-4E7A-811D-D9513B65BFE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{8CC53610-0A62-4185-A066-98BEBE0C82F5}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="93">
   <si>
     <t>小花</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,275 +108,299 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>凱全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐘民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈞翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和塏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奕勳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮緯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綮渝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>育澤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心維</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晏叡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昊緯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昀翰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丞佑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沂柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宸菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姍霓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珮昀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凱甯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彥喆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉揚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皓丞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>翔旭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献浩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政睎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>景皓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宥良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霖懋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崇硯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彥傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家崴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昊澤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑀心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>憫恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苡彤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晴斐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邑潔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子霈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沛渝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>凱全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鐘民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鈞翔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>和塏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奕勳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮緯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>綮渝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>育澤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心維</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晏叡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昊緯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昀翰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子傑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吉勝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丞佑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沂柔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宸菱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姍霓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽儒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珮昀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>凱甯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彥喆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇睿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉揚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皓丞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>翔旭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>献浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>政睎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子嘉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>景皓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宥良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霖懋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子齊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>崇硯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>維勝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彥傑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家崴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昊澤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瑀心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>憫恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苡彤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晴斐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邑潔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子霈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沛渝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柏蓉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳宣妤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飯糰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,7 +777,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -764,23 +791,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>999</v>
       </c>
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>998</v>
+      </c>
+      <c r="B3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>998</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>997</v>
       </c>
       <c r="B4" t="s">
@@ -788,195 +815,195 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +1018,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F23"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1032,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>999</v>
       </c>
       <c r="B2" t="s">
@@ -1013,7 +1040,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>998</v>
       </c>
       <c r="B3" t="s">
@@ -1021,7 +1048,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>997</v>
       </c>
       <c r="B4" t="s">
@@ -1029,195 +1056,195 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>1</v>
+      <c r="A5" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2</v>
+      <c r="A6" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>3</v>
+      <c r="A7" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>4</v>
+      <c r="A8" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>5</v>
+      <c r="A9" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>6</v>
+      <c r="A10" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>7</v>
+      <c r="A11" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>8</v>
+      <c r="A12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>9</v>
+      <c r="A13" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1258,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1272,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" t="s">
@@ -1253,7 +1280,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>998</v>
       </c>
       <c r="B3" t="s">
@@ -1261,7 +1288,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>997</v>
       </c>
       <c r="B4" t="s">
@@ -1280,7 +1307,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1294,7 +1321,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>999</v>
       </c>
       <c r="B2" t="s">
@@ -1302,7 +1329,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>998</v>
       </c>
       <c r="B3" t="s">
@@ -1310,7 +1337,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>997</v>
       </c>
       <c r="B4" t="s">
@@ -1332,7 +1359,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
